--- a/trait_stressor_rankings/trait_stressor_sens_ck.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_ck.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqcklein/Documents/OneDrive - The University of Queensland/Species Vuln OK Project/2sept2020/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7904F-92BC-F54D-B102-823903FC1E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="460" windowWidth="17540" windowHeight="16500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="460" windowWidth="17540" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="sedementation" sheetId="4" r:id="rId1"/>
-    <sheet name="Eutrophication" sheetId="3" r:id="rId2"/>
+    <sheet name="sedimentation" sheetId="4" r:id="rId1"/>
+    <sheet name="eutrophication" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sens_traits" localSheetId="1">Eutrophication!$A$1:$C$99</definedName>
-    <definedName name="sens_traits" localSheetId="0">sedementation!$A$1:$C$99</definedName>
+    <definedName name="sens_traits" localSheetId="1">eutrophication!$A$1:$C$99</definedName>
+    <definedName name="sens_traits" localSheetId="0">sedimentation!$A$1:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="adcap_traits.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="adcap_traits.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ohara:github:spp_vulnerability:int:adcap_traits.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -40,7 +34,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ohara:github:spp_vulnerability:int:adcap_traits.csv" comma="1">
       <textFields count="3">
         <textField type="text"/>
@@ -49,7 +43,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="sens_traits.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="sens_traits.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ohara:github:spp_vulnerability:int:sens_traits.csv" comma="1">
       <textFields count="3">
         <textField type="text"/>
@@ -433,8 +427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,7 +595,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="sens_traits" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sens_traits" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,14 +919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="C60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
       <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -2600,14 +2594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
@@ -4232,7 +4226,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0083648. If you can tolerate acidic enviornments, you may be able to cope better with eutrophication, which lowers the PH of the ocean. If you can't tollerate it, then you are vulnerable." xr:uid="{6621E553-C239-EB40-BB97-C4AA7EB113A0}"/>
+    <hyperlink ref="F23" r:id="rId1" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0083648. If you can tolerate acidic enviornments, you may be able to cope better with eutrophication, which lowers the PH of the ocean. If you can't tollerate it, then you are vulnerable."/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/trait_stressor_rankings/trait_stressor_sens_ck.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_ck.xlsx
@@ -4,23 +4,149 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="460" windowWidth="17540" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="24620" windowHeight="16700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sedimentation" sheetId="4" r:id="rId1"/>
     <sheet name="eutrophication" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sens_traits" localSheetId="1">eutrophication!$A$1:$C$99</definedName>
+    <definedName name="sens_traits" localSheetId="1">eutrophication!$A$1:$C$77</definedName>
     <definedName name="sens_traits" localSheetId="0">sedimentation!$A$1:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={97C0C829-E434-4FFB-9EFF-BE8028CD9B34}</author>
+    <author>tc={84DE9E3C-AF48-4E9E-9AAF-3EA19968DFCF}</author>
+    <author>tc={CBC9A91C-264C-4211-9C00-CB9C3C58863A}</author>
+    <author>tc={8057F66E-B9FB-4E4C-93A1-DB347D325D41}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Don't think this should be 0 value?  Ricardo et al (2016) discusses how sediment particles can weigh down egg/sperm bundles of broadcasting coral species (can be either dioecious or hermaphrodite), interfering with fertilisation. So these species would be sensitive to sedimentation...? (previous comment said: "Evidence for a zero value here. G Ricardo et al. 2015 (Scientific Reports on coral reproductive stuff). G Ricardo et al. 2016 (scientific reports - to do with eggs)". )
+Reply:
+    OK, I’ve changed it, what do you think? Feel free to modify based on the refs.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure why both feeding and non-feeding would be sensitive?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hess thesis found elevated temperature didn't worsen effects of sedimentation on one species - didn't compare heat tolerances of different species. But you could infer that if it did worsen effects, 
+species more sensitive to elevated temperature could be more sensitve to sedimentation
+Reply:
+    Fisher et al (2019) found that under low to moderate reductions in available light from suspended sediments can reduce incidence of coral bleaching (so cumulatively has a less than expected effect, antagonistic) but under high sediment loads the impacts outweight reduced bleaching (so cumulatively has a greater impact, synergistic). So under high sediment loads, thermal stress does worsen effect of sedimentation (while opposite effect at low to medium levels)
+Reply:
+    MacNeil et al (2019) found that reefs exposed to poor water quality are more resistant to coral bleaching - suggests 0 score.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D96" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I haven't found anything on this so far
+Reply:
+    ok. Amelia reckoned breathing through the skin would make you sensitive. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={A4A94629-5917-4AA9-86B5-578409757F00}</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wooldridge (2009) doesn't look at specific max temp tolerances. They find a link between DIN and thermal tolerances (bleaching thresholds)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="140">
   <si>
     <t>category</t>
   </si>
@@ -376,33 +502,12 @@
     <t>references</t>
   </si>
   <si>
-    <t>Evidence for a zero value here. G Ricardo et al. 2015 (Scientific Reports on coral reproductive stuff). G Ricardo et al. 2016 (scientific reports - to do with eggs)</t>
-  </si>
-  <si>
-    <t>JCU thesis by Sybille Hess 2019 online. Fisher et al. 2019 Nat Com (corals). Evidence for no is in MacNeil et al 2019 Nat eco and evo.</t>
-  </si>
-  <si>
-    <t>Sybille Hess et al. 2017 Proc of Royal Society Bio Sci</t>
-  </si>
-  <si>
-    <t>Johansen et al. 2013 (eco app).</t>
-  </si>
-  <si>
-    <t>Bell et al 2015 Marine Pollution Bulletin - https://doi.org/10.1016/j.marpolbul.2015.03.030; Fisher et al. 2019 Nat Com (corals).</t>
-  </si>
-  <si>
     <t>just want to note that Hamilton et al 2017 Bio Cons found that sedimentation impacts juvenile coral reef fish that hang out on lagoonal reefs that fringe mangrove forests (different spot to where adults hang). Not sure how this trait will be accounted for  *habitats scored separately elsewhere</t>
   </si>
   <si>
     <t>So it is more a factor of size of foraging area (you can have many sites in a small area and still be impacted).</t>
   </si>
   <si>
-    <t>Bell et al 2015 Marine Pollution Bulletin - https://doi.org/10.1016/j.marpolbul.2015.03.030; Sybille et al 2017 Proc of Royal Society Biology</t>
-  </si>
-  <si>
-    <t>Wooldridge 2009 Marine Pol Buliten</t>
-  </si>
-  <si>
     <t>Not confident on this one. But since eutrophication appears to impact salinity, species that don't tolerate salinity changes (stenohaline) may be impacted by eutriphication. Need to look for more refs on this. https://www.researchgate.net/publication/297756778_Effects_of_changing_salinity_on_the_ecology_of_the_marine_environment</t>
   </si>
   <si>
@@ -412,23 +517,177 @@
     <t>Not confident on biomineral either??</t>
   </si>
   <si>
-    <t>DOI: 10.1016/j.ecss.2014.05.027 and https://www.researchgate.net/publication/263318491_Coastal_ocean_acidification_The_other_eutrophication_probhttps://www.researchgate.net/publication/263318491 and https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0083648. If you can tolerate acidic enviornments, you may be able to cope better with eutrophication, which lowers the PH of the ocean. If you can't tollerate it, then you are vulnerable.</t>
-  </si>
-  <si>
     <t>Not sure on these, need to do a better review. The vulnerability of coastal ecosystems to hypoxia is, thus, greater than currently recognized, with fish and crustaceans being the most vulnerable faunal components (Vaquer-Sunyer PNAS 2008)...need to dig deeper. This reference may be useful https://www.nature.com/articles/s41598-019-48549-8</t>
   </si>
   <si>
     <t>Not sure on these, need to do a better review, but in appears that all species are impacted by eutriphication (different degrees), see PNAS study).. The vulnerability of coastal ecosystems to hypoxia is, thus, greater than currently recognized, with fish and crustaceans being the most vulnerable faunal components (Vaquer-Sunyer PNAS 2008)...need to dig deeper. This reference may be useful https://www.nature.com/articles/s41598-019-48549-8</t>
   </si>
   <si>
-    <t>Wenger et al 2015 Book chapter and https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4892234/</t>
+    <t>Hess et al (2017)(coral reef fish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some interspecific variation in the effect of sedimentation on gills, possibly related to different environmental tolerances (Hess et al 2017). </t>
+  </si>
+  <si>
+    <t>Hess et al (2017) (fish)</t>
+  </si>
+  <si>
+    <t>Bell et al (2015) - turbidity caued by suspended sediments can reduce light availabilty for photosynthetic sponge symbionts. Reduction in light can also limit sponge larval settlement.</t>
+  </si>
+  <si>
+    <t>Bell et al (2015) (sponges), Bessel-Browne et al (2017) (corals and crustose coralline algae), Johansen &amp; James (2013) (planktivorous reef fish)</t>
+  </si>
+  <si>
+    <t>Sensitivity to turbidity was largely determined by prey mobility and habitat flow velocity (Johansen &amp; Jones 2013).</t>
+  </si>
+  <si>
+    <t>Johansen &amp; Jones (2013) (reef fish)</t>
+  </si>
+  <si>
+    <t>Ricardo et al (2016) (broadcast spawning corals), Ricardo et al (2015) (broadcast spawning corals). (Ricardo et al (2015) found suspended sediments led to sperm limititation. Ricardo et al (2016) found that egg/sperm bundles were ballasted and prevented from reaching the surface, preventing fertilisation)</t>
+  </si>
+  <si>
+    <t>Wenger &amp; McCormick (2013) found sediments disrupted visual cues (experiments). O'Connor et al (2016) (field) found that reef fish larvae failed to distinguish . coral habitat visual cues, potentially impacting recruitment and survival (response to olfactory cues was also affected). Leah et al (2011) found that increased turbidity led to reduced foraging and increased antipredator response in fish.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wenger &amp; McCormick (2013) (reef fish), O'Connor et al (2016)(reef fish larvae), Leahy et al (2011) (reef fish), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wahab et al (2014) (sponge larvae) (TBC)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bell et al (2015)(sponges), Phillip et al (2011) (bivalve)</t>
+  </si>
+  <si>
+    <t>Smaller fish (and larvae) are more sensitive than large fish - likely due to smaller gills and potentially, higher metabolic rates (requiring more oxygen) (Appleby &amp; Scarrat, 1989, Wenger et al 2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Wooldridge (2009)(corals)</t>
+  </si>
+  <si>
+    <r>
+      <t>Wallace et al (2014) found pH levels</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;7.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in summer (relevant to temperate estuarine areas). “The summer levels of pH, pCO2, and calculated Uaragonite present through large areas within the estuaries studied here during summer (pH &lt; 7.7T, pCO2 &gt; 1000 matm, Uaragonite &lt; 1) are within the range that have been shown in laboratory studies to reduce the growth and survival of early life stage mollusks (Gazeau et al., 2013) and fish (Baumann et al., 2012; Frommel et al., 2012; Chambers et al., 2013). Furthermore, these conditions emerge at the same times that many mollusks and fish spawn in estuaries (Kennedy and Krantz, 1982; Bricelj et al., 1987; Able and Fahay, 1998; Kraeuter and Castagna, 2001), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suggesting that some early life stage fish and mollusks sensitive to acidification may be negatively impacted by high levels of pCO2 and low levels of pH and carbonate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenger et al (2015, Gobler &amp; Baumann (2016)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The 0.24 to 1.1 unit decrease in pH observed and predicted with respiratory consumption of O2 in present day eutrophic coastal systems...are well within the range of values shown to adversely impact ecologically and economically important marine fauna These include mollusks (clams, oysters, scallops, and mussels) and sea urchins which form their shells or skeletons from calcium carbonate, and fish, whose respiration and olfactory senses are  impaired by high CO2/ low pH." (Sunda &amp; Cai, 2020). </t>
+  </si>
+  <si>
+    <t>Wallace et al (2014), Sunda &amp; Cai (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunda &amp; Cai (2020) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Our model calculations show that the decreases in pH from respiratory consumption of organic matter in eutrophic systems and that from increases in atmospheric CO2 will act in concert, and show that the combined </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pH effects will be more than additive in many cases, such as at higher salinities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and intermediate to higher temperatures” (Sunda &amp; Cai, 2020)</t>
+    </r>
+  </si>
+  <si>
+    <t>Find better refs</t>
+  </si>
+  <si>
+    <t>Sunda &amp; Cai (2020)(and refs within)</t>
+  </si>
+  <si>
+    <t>Sunda &amp; Cai (2020)/refs within</t>
+  </si>
+  <si>
+    <t>Eriksson &amp; Johansson (2005)(macroalgae)(species with extended reproductive period, either long continuous spore release, or vegetative dispersal less sensitive to sedimentation).</t>
+  </si>
+  <si>
+    <t>Hess (2019) (fish), Fisher et al (2019) (corals), MacNeil et al (2019) (corals)</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,8 +726,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -545,7 +816,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,7 +838,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -592,6 +868,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Carissa Klein" id="{343A1623-E15F-6D41-8D1C-ABE00C87710B}" userId="S::uqcklein@uq.edu.au::338f2f0d-1330-48fa-a6c6-9e4188d9ded7" providerId="AD"/>
+  <person displayName="Paul Brisbane-Webb" id="{6ACFE767-B592-40AD-A09A-870C64156869}" userId="S::paul.brisbane-webb@griffithuni.edu.au::c0abf35c-a130-4ba0-a650-bab52f9e6bf0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,17 +1201,56 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2020-09-11T04:37:33.20" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{97C0C829-E434-4FFB-9EFF-BE8028CD9B34}">
+    <text>Don't think this should be 0 value?  Ricardo et al (2016) discusses how sediment particles can weigh down egg/sperm bundles of broadcasting coral species (can be either dioecious or hermaphrodite), interfering with fertilisation. So these species would be sensitive to sedimentation...? (previous comment said: "Evidence for a zero value here. G Ricardo et al. 2015 (Scientific Reports on coral reproductive stuff). G Ricardo et al. 2016 (scientific reports - to do with eggs)". )</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2020-09-14T03:15:38.46" personId="{343A1623-E15F-6D41-8D1C-ABE00C87710B}" id="{AF8FE99C-EBC1-FF48-ABB9-1A3A3A31A0CA}" parentId="{97C0C829-E434-4FFB-9EFF-BE8028CD9B34}">
+    <text xml:space="preserve">OK, I’ve changed it, what do you think? Feel free to modify based on the refs.
+</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2020-09-10T06:48:10.99" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{84DE9E3C-AF48-4E9E-9AAF-3EA19968DFCF}">
+    <text>Not sure why both feeding and non-feeding would be sensitive?</text>
+  </threadedComment>
+  <threadedComment ref="F16" dT="2020-09-10T00:00:09.20" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{CBC9A91C-264C-4211-9C00-CB9C3C58863A}">
+    <text>Hess thesis found elevated temperature didn't worsen effects of sedimentation on one species - didn't compare heat tolerances of different species. But you could infer that if it did worsen effects, 
+species more sensitive to elevated temperature could be more sensitve to sedimentation</text>
+  </threadedComment>
+  <threadedComment ref="F16" dT="2020-09-10T00:10:50.09" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{5618DA6F-AEA7-4129-997F-4C73B57D88A3}" parentId="{CBC9A91C-264C-4211-9C00-CB9C3C58863A}">
+    <text>Fisher et al (2019) found that under low to moderate reductions in available light from suspended sediments can reduce incidence of coral bleaching (so cumulatively has a less than expected effect, antagonistic) but under high sediment loads the impacts outweight reduced bleaching (so cumulatively has a greater impact, synergistic). So under high sediment loads, thermal stress does worsen effect of sedimentation (while opposite effect at low to medium levels)</text>
+  </threadedComment>
+  <threadedComment ref="F16" dT="2020-09-11T08:46:28.01" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{39A1912D-6DB6-4FB0-9AF7-9116D6FB101E}" parentId="{CBC9A91C-264C-4211-9C00-CB9C3C58863A}">
+    <text>MacNeil et al (2019) found that reefs exposed to poor water quality are more resistant to coral bleaching - suggests 0 score.</text>
+  </threadedComment>
+  <threadedComment ref="D96" dT="2020-09-10T06:57:03.99" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{8057F66E-B9FB-4E4C-93A1-DB347D325D41}">
+    <text>I haven't found anything on this so far</text>
+  </threadedComment>
+  <threadedComment ref="D96" dT="2020-09-14T03:25:04.73" personId="{343A1623-E15F-6D41-8D1C-ABE00C87710B}" id="{04B738D1-FD42-C948-9C7B-6CCAB0CDEB9F}" parentId="{8057F66E-B9FB-4E4C-93A1-DB347D325D41}">
+    <text xml:space="preserve">ok. Amelia reckoned breathing through the skin would make you sensitive. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F10" dT="2020-09-11T05:11:23.82" personId="{6ACFE767-B592-40AD-A09A-870C64156869}" id="{A4A94629-5917-4AA9-86B5-578409757F00}">
+    <text>Wooldridge (2009) doesn't look at specific max temp tolerances. They find a link between DIN and thermal tolerances (bleaching thresholds)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="133.83203125" bestFit="1" customWidth="1"/>
@@ -964,14 +1286,14 @@
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
+      <c r="D2" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>106</v>
+      <c r="F2" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1">
@@ -984,13 +1306,15 @@
       <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="22" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1">
       <c r="A4" s="17" t="s">
@@ -1002,13 +1326,15 @@
       <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
+      <c r="D4" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1">
       <c r="A5" s="17" t="s">
@@ -1020,8 +1346,8 @@
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18">
-        <v>0</v>
+      <c r="D5" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>104</v>
@@ -1038,8 +1364,8 @@
       <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18">
-        <v>1</v>
+      <c r="D6" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>104</v>
@@ -1056,8 +1382,8 @@
       <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="18">
-        <v>1</v>
+      <c r="D7" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>104</v>
@@ -1074,8 +1400,8 @@
       <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18">
-        <v>0</v>
+      <c r="D8" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>104</v>
@@ -1092,8 +1418,8 @@
       <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18">
-        <v>0</v>
+      <c r="D9" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>104</v>
@@ -1110,8 +1436,8 @@
       <c r="C10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1126,8 +1452,8 @@
       <c r="C11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1142,8 +1468,8 @@
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1158,8 +1484,8 @@
       <c r="C13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1174,8 +1500,8 @@
       <c r="C14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1190,8 +1516,8 @@
       <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1206,12 +1532,14 @@
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>107</v>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1224,8 +1552,8 @@
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1240,8 +1568,8 @@
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1256,8 +1584,8 @@
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1272,8 +1600,8 @@
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1288,8 +1616,8 @@
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8">
-        <v>0</v>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1304,8 +1632,8 @@
       <c r="C22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1320,8 +1648,8 @@
       <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
+      <c r="D23" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1336,12 +1664,12 @@
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="4">
-        <v>1</v>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1354,8 +1682,8 @@
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="4">
-        <v>1</v>
+      <c r="D25" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1370,8 +1698,8 @@
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1386,8 +1714,8 @@
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1402,12 +1730,14 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1420,8 +1750,8 @@
       <c r="C29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="8">
-        <v>0</v>
+      <c r="D29" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1436,8 +1766,8 @@
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="8">
-        <v>0</v>
+      <c r="D30" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1452,12 +1782,14 @@
       <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F31" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1470,8 +1802,8 @@
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
-        <v>0</v>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1486,8 +1818,8 @@
       <c r="C33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="10">
-        <v>0</v>
+      <c r="D33" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -1502,8 +1834,8 @@
       <c r="C34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="10">
-        <v>0</v>
+      <c r="D34" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -1518,8 +1850,8 @@
       <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="10">
-        <v>0</v>
+      <c r="D35" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1537,7 +1869,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,8 +1896,8 @@
       <c r="C38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
+      <c r="D38" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1580,8 +1912,8 @@
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="10">
-        <v>0</v>
+      <c r="D39" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -1596,8 +1928,8 @@
       <c r="C40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="6">
-        <v>0</v>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1612,8 +1944,8 @@
       <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="6">
-        <v>0</v>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1628,8 +1960,8 @@
       <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="6">
-        <v>0</v>
+      <c r="D42" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1644,8 +1976,8 @@
       <c r="C43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="10">
-        <v>0</v>
+      <c r="D43" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -1660,8 +1992,8 @@
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="10">
-        <v>0</v>
+      <c r="D44" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -1676,14 +2008,14 @@
       <c r="C45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="16">
-        <v>0</v>
+      <c r="D45" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="16" customFormat="1">
@@ -1696,14 +2028,14 @@
       <c r="C46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="16">
-        <v>0</v>
+      <c r="D46" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="16" customFormat="1">
@@ -1716,8 +2048,8 @@
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="16">
-        <v>0</v>
+      <c r="D47" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>104</v>
@@ -1734,8 +2066,8 @@
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="16">
-        <v>0</v>
+      <c r="D48" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>104</v>
@@ -1752,8 +2084,8 @@
       <c r="C49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="16">
-        <v>0</v>
+      <c r="D49" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>104</v>
@@ -1770,8 +2102,8 @@
       <c r="C50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="16">
-        <v>0</v>
+      <c r="D50" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>104</v>
@@ -1788,8 +2120,8 @@
       <c r="C51" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="16">
-        <v>0</v>
+      <c r="D51" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>104</v>
@@ -1806,14 +2138,14 @@
       <c r="C52" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="16">
-        <v>1</v>
+      <c r="D52" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="16" customFormat="1">
@@ -1826,14 +2158,14 @@
       <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="16">
-        <v>1</v>
+      <c r="D53" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="16" customFormat="1">
@@ -1846,8 +2178,8 @@
       <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="16">
-        <v>0</v>
+      <c r="D54" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>104</v>
@@ -1864,8 +2196,8 @@
       <c r="C55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="16">
-        <v>0</v>
+      <c r="D55" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>104</v>
@@ -1882,8 +2214,8 @@
       <c r="C56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="16">
-        <v>0</v>
+      <c r="D56" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>104</v>
@@ -1900,8 +2232,8 @@
       <c r="C57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="16">
-        <v>0</v>
+      <c r="D57" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>104</v>
@@ -1918,8 +2250,8 @@
       <c r="C58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="16">
-        <v>0</v>
+      <c r="D58" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>104</v>
@@ -1936,10 +2268,12 @@
       <c r="C59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6">
@@ -1952,8 +2286,8 @@
       <c r="C60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="12">
-        <v>0</v>
+      <c r="D60" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -1968,8 +2302,8 @@
       <c r="C61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="12">
-        <v>0</v>
+      <c r="D61" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -1984,8 +2318,8 @@
       <c r="C62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="12">
-        <v>0</v>
+      <c r="D62" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -2000,8 +2334,8 @@
       <c r="C63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="12">
-        <v>0</v>
+      <c r="D63" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -2016,8 +2350,8 @@
       <c r="C64" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="14">
-        <v>0</v>
+      <c r="D64" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -2032,8 +2366,8 @@
       <c r="C65" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="14">
-        <v>0</v>
+      <c r="D65" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -2048,8 +2382,8 @@
       <c r="C66" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="14">
-        <v>0</v>
+      <c r="D66" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -2064,8 +2398,8 @@
       <c r="C67" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="14">
-        <v>0</v>
+      <c r="D67" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -2080,8 +2414,8 @@
       <c r="C68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="14">
-        <v>0</v>
+      <c r="D68" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -2096,8 +2430,8 @@
       <c r="C69" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="14">
-        <v>0</v>
+      <c r="D69" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -2112,7 +2446,9 @@
       <c r="C70" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
     </row>
@@ -2126,8 +2462,8 @@
       <c r="C71" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="12">
-        <v>0</v>
+      <c r="D71" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -2142,8 +2478,8 @@
       <c r="C72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="12">
-        <v>0</v>
+      <c r="D72" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -2158,8 +2494,8 @@
       <c r="C73" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="12">
-        <v>0</v>
+      <c r="D73" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -2174,8 +2510,8 @@
       <c r="C74" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="14">
-        <v>0</v>
+      <c r="D74" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -2190,8 +2526,8 @@
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="14">
-        <v>0</v>
+      <c r="D75" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -2206,8 +2542,8 @@
       <c r="C76" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="14">
-        <v>0</v>
+      <c r="D76" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -2222,8 +2558,8 @@
       <c r="C77" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="14">
-        <v>0</v>
+      <c r="D77" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -2238,8 +2574,8 @@
       <c r="C78" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="14">
-        <v>0</v>
+      <c r="D78" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -2254,8 +2590,8 @@
       <c r="C79" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="14">
-        <v>0</v>
+      <c r="D79" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -2270,8 +2606,8 @@
       <c r="C80" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="14">
-        <v>0</v>
+      <c r="D80" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
@@ -2286,8 +2622,8 @@
       <c r="C81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="12">
-        <v>0</v>
+      <c r="D81" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2302,8 +2638,8 @@
       <c r="C82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="12">
-        <v>0</v>
+      <c r="D82" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2318,8 +2654,8 @@
       <c r="C83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="14">
-        <v>0</v>
+      <c r="D83" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -2334,8 +2670,8 @@
       <c r="C84" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="14">
-        <v>0</v>
+      <c r="D84" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -2350,8 +2686,8 @@
       <c r="C85" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="12">
-        <v>0</v>
+      <c r="D85" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2366,8 +2702,8 @@
       <c r="C86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="12">
-        <v>0</v>
+      <c r="D86" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2382,11 +2718,15 @@
       <c r="C87" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="14">
-        <v>1</v>
-      </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="D87" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="11" t="s">
@@ -2398,8 +2738,8 @@
       <c r="C88" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="14">
-        <v>0</v>
+      <c r="D88" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -2414,8 +2754,8 @@
       <c r="C89" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="12">
-        <v>0</v>
+      <c r="D89" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2430,8 +2770,8 @@
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="12">
-        <v>0</v>
+      <c r="D90" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2446,8 +2786,8 @@
       <c r="C91" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="14">
-        <v>0</v>
+      <c r="D91" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
@@ -2462,8 +2802,8 @@
       <c r="C92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="14">
-        <v>0</v>
+      <c r="D92" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
@@ -2478,8 +2818,8 @@
       <c r="C93" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D93" s="14">
-        <v>0</v>
+      <c r="D93" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -2494,12 +2834,10 @@
       <c r="C94" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="12">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="D94" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6">
@@ -2512,11 +2850,15 @@
       <c r="C95" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="12">
-        <v>1</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
@@ -2528,8 +2870,8 @@
       <c r="C96" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="12">
-        <v>1</v>
+      <c r="D96" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2544,8 +2886,8 @@
       <c r="C97" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="12">
-        <v>0</v>
+      <c r="D97" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2560,8 +2902,8 @@
       <c r="C98" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="12">
-        <v>0</v>
+      <c r="D98" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2576,15 +2918,18 @@
       <c r="C99" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="12">
-        <v>1</v>
+      <c r="D99" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="F99" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2594,21 +2939,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,324 +2973,326 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1">
-      <c r="A2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" s="18" customFormat="1">
-      <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" s="18" customFormat="1">
-      <c r="A4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" s="18" customFormat="1">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" s="18" customFormat="1">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" s="18" customFormat="1">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" s="18" customFormat="1">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" s="18" customFormat="1">
-      <c r="A9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="4"/>
+      <c r="H11" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>114</v>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2954,30 +3301,30 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2987,177 +3334,169 @@
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="21" t="s">
-        <v>118</v>
-      </c>
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3166,414 +3505,440 @@
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="A40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="A41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="A42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="A43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1">
-      <c r="A45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" s="16" customFormat="1">
-      <c r="A46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1">
-      <c r="A47" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" s="16" customFormat="1">
-      <c r="A48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1">
-      <c r="A49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:6" s="16" customFormat="1">
-      <c r="A50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" s="16" customFormat="1">
-      <c r="A51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6" s="16" customFormat="1">
-      <c r="A52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1">
-      <c r="A53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" s="16" customFormat="1">
-      <c r="A54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" s="16" customFormat="1">
-      <c r="A55" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" s="16" customFormat="1">
-      <c r="A56" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" s="16" customFormat="1">
-      <c r="A57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" s="16" customFormat="1">
-      <c r="A58" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="19"/>
+      <c r="A44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -3583,13 +3948,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -3598,46 +3963,46 @@
       <c r="A61" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="B61" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="B62" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -3646,32 +4011,30 @@
       <c r="A64" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="14">
-        <v>0</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" s="14"/>
+      <c r="B64" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="14">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -3681,13 +4044,13 @@
         <v>56</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="14">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -3696,46 +4059,46 @@
       <c r="A67" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="14">
-        <v>0</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="B67" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="14">
-        <v>0</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="B68" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="14">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -3744,45 +4107,43 @@
       <c r="A70" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="12"/>
+      <c r="B70" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="12">
+      <c r="B71" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="14">
         <v>0</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -3795,441 +4156,87 @@
         <v>56</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="12">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="14"/>
+      <c r="B74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="14">
+      <c r="B75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="12">
         <v>0</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="14">
+      <c r="B76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="12">
         <v>0</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="12">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="12">
-        <v>0</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="14">
-        <v>0</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="14">
-        <v>0</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="12">
-        <v>0</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="12">
-        <v>0</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="14">
-        <v>1</v>
-      </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="14">
-        <v>0</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="12">
-        <v>0</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="14">
-        <v>0</v>
-      </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="14">
-        <v>0</v>
-      </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="14">
-        <v>0</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="12">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="12">
-        <v>1</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" s="12">
-        <v>1</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="12">
-        <v>0</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="12">
-        <v>0</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="12">
-        <v>1</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="D77" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" display="https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0083648. If you can tolerate acidic enviornments, you may be able to cope better with eutrophication, which lowers the PH of the ocean. If you can't tollerate it, then you are vulnerable."/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
